--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\IdeaProjects\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD41B5A-2B57-4BC8-AB79-0E67E9602B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F1E09-6EBA-41F3-8204-26786A519A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EE7FFC58-2647-46D7-803F-1059478E6AD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{EE7FFC58-2647-46D7-803F-1059478E6AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="GUI" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -284,9 +284,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
@@ -303,11 +303,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2910FFAF-71CC-4809-B649-47122B60F999}" name="Table2" displayName="Table2" ref="A1:C29" headerRowCount="0" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2910FFAF-71CC-4809-B649-47122B60F999}" name="Table2" displayName="Table2" ref="A1:C29" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7E9F9D8C-623B-4D1C-9C4A-D5B7BCB460AC}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{4F679F2F-2E48-4C35-A960-BA20A90C42C2}" name="Column2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FF98C18F-8527-4947-97E7-FA1A734A6346}" name="Column3" headerRowDxfId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7E9F9D8C-623B-4D1C-9C4A-D5B7BCB460AC}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4F679F2F-2E48-4C35-A960-BA20A90C42C2}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FF98C18F-8527-4947-97E7-FA1A734A6346}" name="Column3" headerRowDxfId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -624,19 +624,19 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,10 +644,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -815,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\IdeaProjects\Project_team-34\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sharif\Project_team-34(clone number 85)\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F1E09-6EBA-41F3-8204-26786A519A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{EE7FFC58-2647-46D7-803F-1059478E6AD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="GUI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +209,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -225,7 +223,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -240,7 +237,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -255,7 +251,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Consolas"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -270,7 +265,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -285,7 +279,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -303,22 +296,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2910FFAF-71CC-4809-B649-47122B60F999}" name="Table2" displayName="Table2" ref="A1:C29" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C29" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7E9F9D8C-623B-4D1C-9C4A-D5B7BCB460AC}" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{4F679F2F-2E48-4C35-A960-BA20A90C42C2}" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FF98C18F-8527-4947-97E7-FA1A734A6346}" name="Column3" headerRowDxfId="2" dataDxfId="1"/>
+    <tableColumn id="1" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7260EA6-9A1A-4D63-A930-37A9F4346B06}" name="Table3" displayName="Table3" ref="E14:G16" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E14:G16" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C5DBE57-75BA-4F2B-9043-BD1EC87452A0}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{AB4F6C0B-77E8-4E2B-A235-E8A798A0C625}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{40DAB3B4-DE35-4844-9CF6-113F91677E11}" name="Column3" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,23 +613,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3313C0BA-EC2D-4B6C-B0FC-36269D3C108E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -655,10 +648,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -666,10 +659,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -680,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -691,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -699,10 +692,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -713,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -724,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -732,10 +725,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -746,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -757,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -768,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -776,10 +769,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -797,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -815,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -833,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -844,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -855,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -866,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -874,10 +867,10 @@
         <v>24</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -888,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -899,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -907,10 +900,10 @@
         <v>24</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -918,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -932,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -943,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -951,10 +944,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -965,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sharif\Project_team-34(clone number 85)\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F89F1-B5EE-4225-8E55-E4ECF0C9D550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>header</t>
   </si>
@@ -129,13 +130,31 @@
   </si>
   <si>
     <t>ManageProductsMenu (Supervisor)</t>
+  </si>
+  <si>
+    <t>AlertBox</t>
+  </si>
+  <si>
+    <t>ChoiceBox</t>
+  </si>
+  <si>
+    <t>Dones</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Persooon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +183,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,16 +217,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -296,22 +333,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C29" headerRowCount="0" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E14:G16" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="E13:H16" totalsRowShown="0">
+  <autoFilter ref="E13:H16" xr:uid="{1B4D61C4-E509-4429-9612-4F710CFB98DB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Persooon"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Dones" dataDxfId="1">
+      <calculatedColumnFormula>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6F5F9D28-44B8-425F-BA4C-1A68344E82A4}" name="Remaining" dataDxfId="0">
+      <calculatedColumnFormula>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,23 +656,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -651,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -662,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -670,10 +716,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -684,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -695,7 +741,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -706,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -717,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -728,7 +774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -739,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -750,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -761,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -771,8 +817,20 @@
       <c r="C13" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -787,10 +845,18 @@
       </c>
       <c r="F14">
         <f>COUNTIF(Table2[[#All],[Column2]], "Aryan")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</f>
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -798,7 +864,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -807,8 +873,16 @@
         <f>COUNTIF(Table2[[#All],[Column2]], "Roozbeh")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -825,8 +899,16 @@
         <f>COUNTIF(Table2[[#All],[Column2]], "Soheil")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</f>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -837,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -845,10 +927,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -859,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -870,7 +952,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -881,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -892,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -903,7 +985,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -914,7 +996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -922,10 +1004,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -936,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -947,7 +1029,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -958,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -967,6 +1049,28 @@
       </c>
       <c r="C29" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F89F1-B5EE-4225-8E55-E4ECF0C9D550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24A57C-B9FA-49D6-BDD0-08B48BE9ACA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,11 +849,11 @@
       </c>
       <c r="G14">
         <f>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\Project_team-34\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\A\A\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24A57C-B9FA-49D6-BDD0-08B48BE9ACA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B5146-77AE-4BCB-9A3B-0DC4ED0B8C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUI" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Persooon"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Dones" dataDxfId="1">
-      <calculatedColumnFormula>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Dones" dataDxfId="0">
+      <calculatedColumnFormula>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6F5F9D28-44B8-425F-BA4C-1A68344E82A4}" name="Remaining" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{6F5F9D28-44B8-425F-BA4C-1A68344E82A4}" name="Remaining" dataDxfId="1">
       <calculatedColumnFormula>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -660,22 +660,22 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -830,7 +830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -848,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="G14">
-        <f>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</f>
+        <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
         <v>8</v>
       </c>
       <c r="H14">
@@ -856,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <f>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</f>
+        <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
         <v>0</v>
       </c>
       <c r="H15">
@@ -882,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -900,15 +900,15 @@
         <v>9</v>
       </c>
       <c r="G16">
-        <f>COUNTIFS(C:C, 1, B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>2</v>
+        <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
+        <v>5.5</v>
       </c>
       <c r="H16">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -952,7 +952,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -985,7 +985,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\A\A\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B5146-77AE-4BCB-9A3B-0DC4ED0B8C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D0A4C-BDAF-4619-88E8-ED6FF2D1E530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,6 +332,1039 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GUI!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GUI!$E$14:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Aryan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Roozbeh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Soheil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GUI!$F$14:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2540-4C29-A76E-7AF90E6706C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GUI!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GUI!$E$14:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Aryan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Roozbeh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Soheil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GUI!$G$14:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2540-4C29-A76E-7AF90E6706C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GUI!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GUI!$E$14:$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Aryan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Roozbeh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Soheil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GUI!$H$14:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2540-4C29-A76E-7AF90E6706C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="413871600"/>
+        <c:axId val="412320800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="413871600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412320800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412320800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413871600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2F21E3-2FA0-43C5-99D9-B6D6D51D175F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="3">
@@ -349,10 +1382,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Persooon"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Dones" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Dones" dataDxfId="1">
       <calculatedColumnFormula>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6F5F9D28-44B8-425F-BA4C-1A68344E82A4}" name="Remaining" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{6F5F9D28-44B8-425F-BA4C-1A68344E82A4}" name="Remaining" dataDxfId="0">
       <calculatedColumnFormula>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -660,7 +1693,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,9 +2109,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\A\A\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D0A4C-BDAF-4619-88E8-ED6FF2D1E530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC34507-514A-43B9-87EC-F58D26511EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -561,7 +561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="G14">
         <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="H14">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1897,7 +1897,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2037,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2081,7 +2081,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2092,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2103,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\A\A\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC34507-514A-43B9-87EC-F58D26511EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5E452-15AD-42C6-A71D-5FC8F07302CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.3</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -561,7 +561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.7</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,11 +1882,11 @@
       </c>
       <c r="G14">
         <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="H14">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>4.7</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2092,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\A\A\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5E452-15AD-42C6-A71D-5FC8F07302CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B51F14-92D5-4307-8566-724DA6C8EA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.6</c:v>
+                  <c:v>8.8999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -561,7 +561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>2.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,11 +1882,11 @@
       </c>
       <c r="G14">
         <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>7.6</v>
+        <v>8.8999999999999986</v>
       </c>
       <c r="H14">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>3.4000000000000004</v>
+        <v>2.1000000000000014</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1923,7 +1923,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -2103,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\A\A\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B51F14-92D5-4307-8566-724DA6C8EA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F324A5-9684-4BB0-86FC-EF9242CA19D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,12 +188,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -496,7 +498,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.8999999999999986</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -561,7 +563,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.1000000000000014</c:v>
+                  <c:v>1.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -1693,7 +1695,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,11 +1884,11 @@
       </c>
       <c r="G14">
         <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>8.8999999999999986</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H14">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>2.1000000000000014</v>
+        <v>1.3000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1993,7 +1995,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\A\A\Project_team-34\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\Project_team-34ToroKhodaTheLast\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F324A5-9684-4BB0-86FC-EF9242CA19D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A31CC2-D5CA-4C62-94BB-D96EBECEEF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,7 +501,7 @@
                   <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.5</c:v>
@@ -566,7 +566,7 @@
                   <c:v>1.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.5</c:v>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,7 +1762,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1817,7 +1817,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1828,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1839,7 +1839,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1873,7 +1873,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -1910,11 +1910,11 @@
       </c>
       <c r="G15">
         <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H15">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>10</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2006,7 +2006,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2072,7 +2072,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\Project_team-34ToroKhodaTheLast\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sharif\Project_team-34(clone number 85)\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A31CC2-D5CA-4C62-94BB-D96EBECEEF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="GUI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -153,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +334,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -349,6 +348,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -444,7 +444,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2540-4C29-A76E-7AF90E6706C3}"/>
             </c:ext>
@@ -504,12 +504,12 @@
                   <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2540-4C29-A76E-7AF90E6706C3}"/>
             </c:ext>
@@ -569,12 +569,12 @@
                   <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2540-4C29-A76E-7AF90E6706C3}"/>
             </c:ext>
@@ -590,11 +590,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="413871600"/>
-        <c:axId val="412320800"/>
+        <c:axId val="-1195265392"/>
+        <c:axId val="-1195264304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="413871600"/>
+        <c:axId val="-1195265392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412320800"/>
+        <c:crossAx val="-1195264304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -645,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412320800"/>
+        <c:axId val="-1195264304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413871600"/>
+        <c:crossAx val="-1195265392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -710,6 +710,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -741,14 +742,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1346,7 +1347,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2F21E3-2FA0-43C5-99D9-B6D6D51D175F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B2F21E3-2FA0-43C5-99D9-B6D6D51D175F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,26 +1369,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" dataDxfId="5"/>
+    <tableColumn id="2" name="Column2" dataDxfId="4"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="E13:H16" totalsRowShown="0">
-  <autoFilter ref="E13:H16" xr:uid="{1B4D61C4-E509-4429-9612-4F710CFB98DB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E13:H16" totalsRowShown="0">
+  <autoFilter ref="E13:H16"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Persooon"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Dones" dataDxfId="1">
-      <calculatedColumnFormula>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</calculatedColumnFormula>
+    <tableColumn id="1" name="Persooon"/>
+    <tableColumn id="2" name="Total"/>
+    <tableColumn id="3" name="Dones" dataDxfId="1">
+      <calculatedColumnFormula>SUMIFS(C:C,B:B, Table3[[#This Row],[Persooon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6F5F9D28-44B8-425F-BA4C-1A68344E82A4}" name="Remaining" dataDxfId="0">
+    <tableColumn id="4" name="Remaining" dataDxfId="0">
       <calculatedColumnFormula>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1691,11 +1692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1851,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1883,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="G14">
-        <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
+        <f>SUMIFS(C:C,B:B, Table3[[#This Row],[Persooon]])</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="H14">
@@ -1909,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
+        <f>SUMIFS(C:C,B:B, Table3[[#This Row],[Persooon]])</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="H15">
@@ -1935,12 +1936,12 @@
         <v>9</v>
       </c>
       <c r="G16">
-        <f>SUMIFS(C:C, B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>5.5</v>
+        <f>SUMIFS(C:C,B:B, Table3[[#This Row],[Persooon]])</f>
+        <v>7.5</v>
       </c>
       <c r="H16">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1984,7 +1985,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2017,7 +2018,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -2061,7 +2062,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">

--- a/src/main/resources/JobDistribution.xlsx
+++ b/src/main/resources/JobDistribution.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sharif\Project_team-34(clone number 85)\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\Project_team-34\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558BB2E-81DB-407D-8CE9-8673CC613CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GUI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>header</t>
   </si>
@@ -147,13 +148,16 @@
   </si>
   <si>
     <t>Persooon</t>
+  </si>
+  <si>
+    <t>CompareGMenu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +201,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,13 +235,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,7 +353,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -348,7 +367,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -433,7 +451,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -444,7 +462,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2540-4C29-A76E-7AF90E6706C3}"/>
             </c:ext>
@@ -498,7 +516,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.0999999999999996</c:v>
@@ -509,7 +527,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2540-4C29-A76E-7AF90E6706C3}"/>
             </c:ext>
@@ -563,7 +581,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.3000000000000007</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.9000000000000004</c:v>
@@ -574,7 +592,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2540-4C29-A76E-7AF90E6706C3}"/>
             </c:ext>
@@ -710,7 +728,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -742,14 +759,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1347,7 +1364,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B2F21E3-2FA0-43C5-99D9-B6D6D51D175F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2F21E3-2FA0-43C5-99D9-B6D6D51D175F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,26 +1386,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C31" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C32" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" dataDxfId="5"/>
-    <tableColumn id="2" name="Column2" dataDxfId="4"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E13:H16" totalsRowShown="0">
-  <autoFilter ref="E13:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="E13:H16" totalsRowShown="0">
+  <autoFilter ref="E13:H16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Persooon"/>
-    <tableColumn id="2" name="Total"/>
-    <tableColumn id="3" name="Dones" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Persooon"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Dones" dataDxfId="1">
       <calculatedColumnFormula>SUMIFS(C:C,B:B, Table3[[#This Row],[Persooon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Remaining" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Remaining" dataDxfId="0">
       <calculatedColumnFormula>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1692,26 +1709,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1739,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1783,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1794,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1816,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1810,7 +1827,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +1838,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +1849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1843,7 +1860,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1866,7 +1883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1881,18 +1898,18 @@
       </c>
       <c r="F14">
         <f>COUNTIF(Table2[[#All],[Column2]], "Aryan")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <f>SUMIFS(C:C,B:B, Table3[[#This Row],[Persooon]])</f>
-        <v>9.6999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="H14">
         <f>Table3[[#This Row],[Total]]-Table3[[#This Row],[Dones]]</f>
-        <v>1.3000000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1918,7 +1935,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1944,7 +1961,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1966,7 +1983,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1977,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1988,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1999,7 +2016,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2010,7 +2027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2021,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2032,7 +2049,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2071,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2076,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -2087,7 +2104,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -2098,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -2107,6 +2124,17 @@
       </c>
       <c r="C31" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
